--- a/data/trans_dic/P19C03-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2337307249031532</v>
+        <v>0.2321170489949173</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2421084172569323</v>
+        <v>0.2469405545004862</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2381435866602307</v>
+        <v>0.2395213759870626</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2053712041282125</v>
+        <v>0.2004003433974786</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2279079976320633</v>
+        <v>0.2307355742610994</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2575641745024874</v>
+        <v>0.2568566112816492</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2359194353920425</v>
+        <v>0.2403411151978006</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1708010242255463</v>
+        <v>0.1696773367369142</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.241902864388029</v>
+        <v>0.2421577407632743</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2595234324050363</v>
+        <v>0.2604826425259097</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2472740011205173</v>
+        <v>0.2460963902636484</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1958382184883225</v>
+        <v>0.1922280470065026</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3210625841702016</v>
+        <v>0.3231351435913199</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3097131894803257</v>
+        <v>0.3056560769992919</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3045992260967755</v>
+        <v>0.3065294333736427</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3005378695203202</v>
+        <v>0.2980058460319947</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2942747916325715</v>
+        <v>0.2956889196750421</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3199042241324457</v>
+        <v>0.315441144584514</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2961270674168909</v>
+        <v>0.2972013612952215</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2348977126940069</v>
+        <v>0.2348083169225648</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2923904748784052</v>
+        <v>0.294373670169771</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3052457579650318</v>
+        <v>0.3048917958367257</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2891135339961703</v>
+        <v>0.2908723191870091</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2504471206617661</v>
+        <v>0.251154629764019</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2763858709999829</v>
+        <v>0.2806800650242168</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2814636026658829</v>
+        <v>0.2787452717065918</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.293788594550197</v>
+        <v>0.2927938172083688</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1726611498049104</v>
+        <v>0.1753372792521753</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3142574967828559</v>
+        <v>0.3123273176827223</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2603766122572683</v>
+        <v>0.257934419449292</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2316830289455133</v>
+        <v>0.2345530573590544</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1634249761746771</v>
+        <v>0.1646181163232566</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3068408993656758</v>
+        <v>0.3056267099902833</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2772787022947205</v>
+        <v>0.2761805344171142</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2729111101477413</v>
+        <v>0.2708399950618197</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1747531216098435</v>
+        <v>0.1750786556657794</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3440994270329969</v>
+        <v>0.3463955061282278</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3470836854934615</v>
+        <v>0.3456640070127554</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3608373228927431</v>
+        <v>0.3658999674926172</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2363696680762801</v>
+        <v>0.2369006316783612</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.379792053944126</v>
+        <v>0.3790844219551461</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3192235205401118</v>
+        <v>0.3187639394505798</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2948927186276148</v>
+        <v>0.2942034654514343</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2043370639630599</v>
+        <v>0.2055957686303002</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3528526749221229</v>
+        <v>0.3541697236132451</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3224160987779564</v>
+        <v>0.3201518022636162</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3182658372631243</v>
+        <v>0.3172598917719092</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.211911178887157</v>
+        <v>0.2115271524081054</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.2694799041906779</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1617333384928615</v>
+        <v>0.1617333384928616</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.322117833374309</v>
+        <v>0.3239630792516859</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2746609451452728</v>
+        <v>0.2734690717186682</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2292851688902832</v>
+        <v>0.2316358576920395</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1370036522477515</v>
+        <v>0.1382692100133106</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3095957466653745</v>
+        <v>0.3100216535130049</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2787898164149695</v>
+        <v>0.2802695445009057</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2454369613826541</v>
+        <v>0.2416175657533068</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1456940718053292</v>
+        <v>0.141228444732228</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.327184134901494</v>
+        <v>0.3246445968487656</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2877345158776257</v>
+        <v>0.2855126989552446</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2457503509308833</v>
+        <v>0.2456445220498607</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1457454161857543</v>
+        <v>0.1442727997806578</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3856826982957044</v>
+        <v>0.3894267012804639</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3391928786629143</v>
+        <v>0.3388244079454233</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2988860831858922</v>
+        <v>0.2947987528139694</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1893643903949064</v>
+        <v>0.1910021157750686</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3748045044866299</v>
+        <v>0.3756709613947831</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.346140788137702</v>
+        <v>0.34717595674005</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3151112557680179</v>
+        <v>0.3163273268109111</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1849702353282152</v>
+        <v>0.1833121867394458</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3709865985092582</v>
+        <v>0.3706613368458289</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3342025458657923</v>
+        <v>0.3331437332346869</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2947985566388946</v>
+        <v>0.2970925003644304</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1775470079467837</v>
+        <v>0.1786304293952868</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2620037028098765</v>
+        <v>0.2668984915834158</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2675373354163837</v>
+        <v>0.2653994033603441</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1831425506237459</v>
+        <v>0.1794746200495965</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1581446603869885</v>
+        <v>0.1575330879226717</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2815341972189305</v>
+        <v>0.2822104514256693</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2108451920398164</v>
+        <v>0.2127990568260461</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1913290522097703</v>
+        <v>0.1928324128484276</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1704536142999679</v>
+        <v>0.1699348397209543</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.28374024317841</v>
+        <v>0.2830994416822833</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2535864761876804</v>
+        <v>0.2499488501125882</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1984891075141741</v>
+        <v>0.1972926821635032</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1703619526402505</v>
+        <v>0.1713654342390249</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3651518168472498</v>
+        <v>0.3634125797617286</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3576504167670256</v>
+        <v>0.3568783523896649</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2659646335002646</v>
+        <v>0.2605073652594173</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2106323531405662</v>
+        <v>0.2100350093252716</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3868444372549052</v>
+        <v>0.3940551087804554</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3004265240208115</v>
+        <v>0.3000429924326911</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2726900798499525</v>
+        <v>0.2754644923904719</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2184157564629018</v>
+        <v>0.2204597802292084</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.360916269500279</v>
+        <v>0.3614227723933181</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3169896789341402</v>
+        <v>0.3160792820266456</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2558715851461194</v>
+        <v>0.2537269241322215</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2061764202897786</v>
+        <v>0.2080021656523127</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.2758542426435807</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1900942042475002</v>
+        <v>0.1900942042475003</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3204255028659151</v>
@@ -1241,7 +1241,7 @@
         <v>0.2693246837602923</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1864416809851111</v>
+        <v>0.1864416809851112</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3028073913974232</v>
+        <v>0.3029633363993954</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2829973023722729</v>
+        <v>0.282605531819429</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2583851080694513</v>
+        <v>0.2586337497128642</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1746936287180164</v>
+        <v>0.1755275555009433</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3026794478709902</v>
+        <v>0.3032235805253752</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2735506122681718</v>
+        <v>0.2717259064098311</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2482166455508926</v>
+        <v>0.2467522116303264</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.170490016810835</v>
+        <v>0.1715014756762488</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.307425356245261</v>
+        <v>0.3097734413990714</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2819682318953879</v>
+        <v>0.2825105270277349</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2579739816937759</v>
+        <v>0.2575732540099266</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1772685148472929</v>
+        <v>0.1770153247579179</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3412160379320121</v>
+        <v>0.3416263511606373</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3172990897319726</v>
+        <v>0.316715376020518</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2923037763993557</v>
+        <v>0.2929559205168173</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2057991865537506</v>
+        <v>0.2072081205589814</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3385181174415947</v>
+        <v>0.3386815958925855</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3088695511371236</v>
+        <v>0.3055138143508953</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2820733764567792</v>
+        <v>0.2811698353523813</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1947859645935536</v>
+        <v>0.1960715242489594</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3341577165452751</v>
+        <v>0.3349472088858264</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3065078817829426</v>
+        <v>0.3062651800489539</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2811495020424916</v>
+        <v>0.2809555120627543</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1951136009126517</v>
+        <v>0.1965065018328225</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>92537</v>
+        <v>91899</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>199834</v>
+        <v>203823</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>186791</v>
+        <v>187872</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>92640</v>
+        <v>90398</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>166511</v>
+        <v>168577</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>244034</v>
+        <v>243364</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>217686</v>
+        <v>221766</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>100635</v>
+        <v>99973</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>272509</v>
+        <v>272796</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>460099</v>
+        <v>461799</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>422116</v>
+        <v>420105</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>203726</v>
+        <v>199971</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>127113</v>
+        <v>127934</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>255634</v>
+        <v>252286</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>238916</v>
+        <v>240430</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>135568</v>
+        <v>134426</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>214999</v>
+        <v>216032</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>303099</v>
+        <v>298871</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>273241</v>
+        <v>274232</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>138400</v>
+        <v>138347</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>329384</v>
+        <v>331618</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>541158</v>
+        <v>540530</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>493539</v>
+        <v>496541</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>260535</v>
+        <v>261271</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>220867</v>
+        <v>224298</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>236379</v>
+        <v>234096</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>209858</v>
+        <v>209148</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>159050</v>
+        <v>161515</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>267101</v>
+        <v>265461</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>250704</v>
+        <v>248353</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>195235</v>
+        <v>197654</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>177555</v>
+        <v>178851</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>506002</v>
+        <v>504000</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>499843</v>
+        <v>497863</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>424922</v>
+        <v>421698</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>350839</v>
+        <v>351493</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>274978</v>
+        <v>276813</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>291488</v>
+        <v>290296</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>257752</v>
+        <v>261369</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>217736</v>
+        <v>218225</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>322802</v>
+        <v>322201</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>307365</v>
+        <v>306922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>248501</v>
+        <v>247920</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>222004</v>
+        <v>223372</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>581878</v>
+        <v>584050</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>581210</v>
+        <v>577129</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>495540</v>
+        <v>493973</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>425439</v>
+        <v>424668</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>286846</v>
+        <v>288489</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>213671</v>
+        <v>212743</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>164189</v>
+        <v>165872</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>140418</v>
+        <v>141715</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>256848</v>
+        <v>257201</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>224732</v>
+        <v>225925</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>161735</v>
+        <v>159218</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>150080</v>
+        <v>145480</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>562798</v>
+        <v>558430</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>455783</v>
+        <v>452264</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>337921</v>
+        <v>337776</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>299510</v>
+        <v>296484</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>343451</v>
+        <v>346785</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>263873</v>
+        <v>263586</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>214030</v>
+        <v>211103</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>194083</v>
+        <v>195762</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>310947</v>
+        <v>311666</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>279023</v>
+        <v>279858</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>207649</v>
+        <v>208450</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>190538</v>
+        <v>188830</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>638144</v>
+        <v>637584</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>529390</v>
+        <v>527713</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>405366</v>
+        <v>408520</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>364863</v>
+        <v>367089</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>89071</v>
+        <v>90735</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>121515</v>
+        <v>120544</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>78706</v>
+        <v>77130</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>150237</v>
+        <v>149656</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>78442</v>
+        <v>78630</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>87192</v>
+        <v>88000</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>82530</v>
+        <v>83179</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>150126</v>
+        <v>149669</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>175517</v>
+        <v>175121</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>220045</v>
+        <v>216889</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>170920</v>
+        <v>169890</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>311889</v>
+        <v>313726</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>124138</v>
+        <v>123546</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>162444</v>
+        <v>162093</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>114299</v>
+        <v>111954</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>200100</v>
+        <v>199533</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>107783</v>
+        <v>109792</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>124237</v>
+        <v>124078</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>117625</v>
+        <v>118822</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>192369</v>
+        <v>194169</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>223257</v>
+        <v>223570</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>275062</v>
+        <v>274272</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>220333</v>
+        <v>218486</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>377456</v>
+        <v>380799</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>734460</v>
+        <v>734838</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>819943</v>
+        <v>818808</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>683306</v>
+        <v>683964</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>584729</v>
+        <v>587520</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>813843</v>
+        <v>815306</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>856201</v>
+        <v>850489</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>708836</v>
+        <v>704654</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>611463</v>
+        <v>615091</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1572265</v>
+        <v>1584274</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1699509</v>
+        <v>1702777</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1418920</v>
+        <v>1416715</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1229122</v>
+        <v>1227366</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>827621</v>
+        <v>828616</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>919327</v>
+        <v>917636</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>773005</v>
+        <v>774730</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>688845</v>
+        <v>693561</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>910206</v>
+        <v>910646</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>966747</v>
+        <v>956244</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>805522</v>
+        <v>802941</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>698600</v>
+        <v>703211</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1708982</v>
+        <v>1713020</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1847416</v>
+        <v>1845954</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1546391</v>
+        <v>1545324</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1352854</v>
+        <v>1362512</v>
       </c>
     </row>
     <row r="24">
